--- a/Courses/Coursera courses co-ordinator_31 May 2020.xlsx
+++ b/Courses/Coursera courses co-ordinator_31 May 2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monac\Documents\Training Courses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monac\Documents\Projects\-1.Study_and_Exploration\Courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A91B02-5E2A-45D1-9354-8BFDCE342FC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0484FA-153C-4B0B-B247-99B1339E67E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>Course name</t>
   </si>
@@ -206,12 +206,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M450"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +535,7 @@
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="87.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -551,28 +553,28 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="6"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
@@ -604,7 +606,7 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2">
@@ -613,7 +615,7 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <v>43982</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -636,7 +638,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -648,7 +650,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -660,7 +662,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -672,7 +674,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -687,7 +689,7 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2">
@@ -696,15 +698,12 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>43982</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
       <c r="G10" s="1">
         <v>43990</v>
       </c>
@@ -716,20 +715,20 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="2">
         <v>3</v>
       </c>
@@ -741,7 +740,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="2">
         <v>4</v>
       </c>
@@ -753,7 +752,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="2">
         <v>5</v>
       </c>
@@ -765,7 +764,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="2">
         <v>6</v>
       </c>
@@ -780,7 +779,7 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="2">
@@ -789,7 +788,7 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="1">
         <v>43982</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -797,7 +796,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="2">
         <v>2</v>
       </c>
@@ -809,20 +808,20 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="2">
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="2">
         <v>4</v>
       </c>
@@ -834,7 +833,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -849,7 +848,7 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="2">
@@ -858,7 +857,7 @@
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="1">
         <v>43982</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -866,7 +865,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="2">
         <v>2</v>
       </c>
@@ -878,7 +877,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="2">
         <v>3</v>
       </c>
@@ -890,7 +889,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="2">
         <v>4</v>
       </c>
@@ -919,7 +918,7 @@
       <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="1">
         <v>43982</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -933,7 +932,7 @@
       <c r="C30" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="1">
         <v>43982</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -2244,7 +2243,7 @@
           <x14:formula1>
             <xm:f>'Validation support sheet'!$B$3:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F4</xm:sqref>
+          <xm:sqref>F4:F207</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Courses/Coursera courses co-ordinator_31 May 2020.xlsx
+++ b/Courses/Coursera courses co-ordinator_31 May 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monac\Documents\Projects\-1.Study_and_Exploration\Courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0484FA-153C-4B0B-B247-99B1339E67E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB382306-D2E6-4F44-85B4-8863032B7686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>Course name</t>
   </si>
@@ -167,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,19 +175,207 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -196,30 +384,243 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -237,7 +638,85 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -524,1708 +1003,1993 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M450"/>
+  <dimension ref="A1:M444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="87.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="18.5703125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M3" s="1"/>
+      <c r="A3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43982</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="42">
+        <v>43990</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="44">
+        <v>43997</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="44">
+        <v>44004</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="44">
+        <v>44011</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="57"/>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="15">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12">
+        <v>43982</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="42">
+        <v>43990</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="42">
+        <v>43997</v>
+      </c>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42">
+        <v>44004</v>
+      </c>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="15">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="12">
         <v>43982</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G14" s="42">
         <v>43990</v>
       </c>
-      <c r="I4" s="1">
+      <c r="H14" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="42">
         <v>43997</v>
       </c>
-      <c r="K4" s="1">
-        <v>44004</v>
-      </c>
-      <c r="M4" s="1">
-        <v>44011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2">
+      <c r="J14" s="41"/>
+      <c r="K14" s="42">
+        <v>43973</v>
+      </c>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2">
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="C16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2">
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="6">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="2">
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="58"/>
+      <c r="B18" s="15">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="C18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="19">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="21">
         <v>43982</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="1">
+      <c r="F19" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="42">
         <v>43990</v>
       </c>
-      <c r="I10" s="1">
-        <v>43997</v>
-      </c>
-      <c r="K10" s="1">
-        <v>44004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2">
+      <c r="H19" s="41"/>
+      <c r="I19" s="42">
+        <v>43966</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42">
+        <v>43973</v>
+      </c>
+      <c r="L19" s="41"/>
+      <c r="M19" s="42">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4" t="s">
+      <c r="C20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2">
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="23">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="C21" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2">
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
+      <c r="B22" s="27">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="C22" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="31">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C23" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="33">
         <v>43982</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E23" s="34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2">
+      <c r="F23" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="50">
+        <v>43990</v>
+      </c>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50">
+        <v>43966</v>
+      </c>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50">
+        <v>43973</v>
+      </c>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50">
+        <v>43980</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="31">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C24" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="33">
         <v>43982</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="2">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="2">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="1">
-        <v>43982</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="1">
-        <v>43982</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E32" s="4"/>
+      <c r="F24" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="50">
+        <v>43990</v>
+      </c>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="50"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="4"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="4"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="4"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="4"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="4"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="4"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="4"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="4"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="4"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="4"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="4"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="4"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="4"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="4"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="4"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E48" s="4"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="4"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="4"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="4"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52" s="4"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="4"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="4"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="4"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="4"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="4"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="4"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="4"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="4"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="4"/>
+      <c r="E61" s="3"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="4"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E63" s="4"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="4"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="4"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="4"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="4"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="4"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="4"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="4"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="4"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="4"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="4"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="4"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="4"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="4"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="4"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="4"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="4"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="4"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87" s="4"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="4"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89" s="4"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90" s="4"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="4"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="4"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93" s="4"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="4"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95" s="4"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96" s="4"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97" s="4"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C98" s="4"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C99" s="4"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100" s="4"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101" s="4"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="4"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C103" s="4"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C104" s="4"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C105" s="4"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="4"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="4"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="4"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="4"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="3"/>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="4"/>
+      <c r="E113" s="3"/>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="4"/>
+      <c r="E114" s="3"/>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="4"/>
+      <c r="E115" s="3"/>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="4"/>
+      <c r="E116" s="3"/>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="4"/>
+      <c r="E117" s="3"/>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="4"/>
+      <c r="E118" s="3"/>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" s="4"/>
+      <c r="E119" s="3"/>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="4"/>
+      <c r="E120" s="3"/>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="4"/>
+      <c r="E121" s="3"/>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122" s="4"/>
+      <c r="E122" s="3"/>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E123" s="4"/>
+      <c r="E123" s="3"/>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E124" s="4"/>
+      <c r="E124" s="3"/>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E125" s="4"/>
+      <c r="E125" s="3"/>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E126" s="4"/>
+      <c r="E126" s="3"/>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E127" s="4"/>
+      <c r="E127" s="3"/>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E128" s="4"/>
+      <c r="E128" s="3"/>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E129" s="4"/>
+      <c r="E129" s="3"/>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="4"/>
+      <c r="E130" s="3"/>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E131" s="4"/>
+      <c r="E131" s="3"/>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E132" s="4"/>
+      <c r="E132" s="3"/>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E133" s="4"/>
+      <c r="E133" s="3"/>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E134" s="4"/>
+      <c r="E134" s="3"/>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E135" s="4"/>
+      <c r="E135" s="3"/>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E136" s="4"/>
+      <c r="E136" s="3"/>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E137" s="4"/>
+      <c r="E137" s="3"/>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E138" s="4"/>
+      <c r="E138" s="3"/>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E139" s="4"/>
+      <c r="E139" s="3"/>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E140" s="4"/>
+      <c r="E140" s="3"/>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E141" s="4"/>
+      <c r="E141" s="3"/>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E142" s="4"/>
+      <c r="E142" s="3"/>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E143" s="4"/>
+      <c r="E143" s="3"/>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E144" s="4"/>
+      <c r="E144" s="3"/>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" s="4"/>
+      <c r="E145" s="3"/>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" s="4"/>
+      <c r="E146" s="3"/>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147" s="4"/>
+      <c r="E147" s="3"/>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148" s="4"/>
+      <c r="E148" s="3"/>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="4"/>
+      <c r="E149" s="3"/>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" s="4"/>
+      <c r="E150" s="3"/>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" s="4"/>
+      <c r="E151" s="3"/>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E152" s="4"/>
+      <c r="E152" s="3"/>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E153" s="4"/>
+      <c r="E153" s="3"/>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E154" s="4"/>
+      <c r="E154" s="3"/>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E155" s="4"/>
+      <c r="E155" s="3"/>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E156" s="4"/>
+      <c r="E156" s="3"/>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E157" s="4"/>
+      <c r="E157" s="3"/>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E158" s="4"/>
+      <c r="E158" s="3"/>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E159" s="4"/>
+      <c r="E159" s="3"/>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E160" s="4"/>
+      <c r="E160" s="3"/>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E161" s="4"/>
+      <c r="E161" s="3"/>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E162" s="4"/>
+      <c r="E162" s="3"/>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E163" s="4"/>
+      <c r="E163" s="3"/>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E164" s="4"/>
+      <c r="E164" s="3"/>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E165" s="4"/>
+      <c r="E165" s="3"/>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E166" s="4"/>
+      <c r="E166" s="3"/>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E167" s="4"/>
+      <c r="E167" s="3"/>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E168" s="4"/>
+      <c r="E168" s="3"/>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E169" s="4"/>
+      <c r="E169" s="3"/>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E170" s="4"/>
+      <c r="E170" s="3"/>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E171" s="4"/>
+      <c r="E171" s="3"/>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E172" s="4"/>
+      <c r="E172" s="3"/>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E173" s="4"/>
+      <c r="E173" s="3"/>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E174" s="4"/>
+      <c r="E174" s="3"/>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E175" s="4"/>
+      <c r="E175" s="3"/>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E176" s="4"/>
+      <c r="E176" s="3"/>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E177" s="4"/>
+      <c r="E177" s="3"/>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E178" s="4"/>
+      <c r="E178" s="3"/>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E179" s="4"/>
+      <c r="E179" s="3"/>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E180" s="4"/>
+      <c r="E180" s="3"/>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E181" s="4"/>
+      <c r="E181" s="3"/>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E182" s="4"/>
+      <c r="E182" s="3"/>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E183" s="4"/>
+      <c r="E183" s="3"/>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E184" s="4"/>
+      <c r="E184" s="3"/>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E185" s="4"/>
+      <c r="E185" s="3"/>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E186" s="4"/>
+      <c r="E186" s="3"/>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E187" s="4"/>
+      <c r="E187" s="3"/>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E188" s="4"/>
+      <c r="E188" s="3"/>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E189" s="4"/>
+      <c r="E189" s="3"/>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E190" s="4"/>
+      <c r="E190" s="3"/>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E191" s="4"/>
+      <c r="E191" s="3"/>
     </row>
     <row r="192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E192" s="4"/>
+      <c r="E192" s="3"/>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E193" s="4"/>
+      <c r="E193" s="3"/>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E194" s="4"/>
+      <c r="E194" s="3"/>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E195" s="4"/>
+      <c r="E195" s="3"/>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E196" s="4"/>
+      <c r="E196" s="3"/>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E197" s="4"/>
+      <c r="E197" s="3"/>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E198" s="4"/>
+      <c r="E198" s="3"/>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E199" s="4"/>
+      <c r="E199" s="3"/>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E200" s="4"/>
+      <c r="E200" s="3"/>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E201" s="4"/>
+      <c r="E201" s="3"/>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E202" s="4"/>
+      <c r="E202" s="3"/>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E203" s="4"/>
+      <c r="E203" s="3"/>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E204" s="4"/>
+      <c r="E204" s="3"/>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E205" s="4"/>
+      <c r="E205" s="3"/>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E206" s="4"/>
+      <c r="E206" s="3"/>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E207" s="4"/>
+      <c r="E207" s="3"/>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E208" s="4"/>
+      <c r="E208" s="3"/>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E209" s="4"/>
+      <c r="E209" s="3"/>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E210" s="4"/>
+      <c r="E210" s="3"/>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E211" s="4"/>
+      <c r="E211" s="3"/>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E212" s="4"/>
+      <c r="E212" s="3"/>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E213" s="4"/>
+      <c r="E213" s="3"/>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E214" s="4"/>
+      <c r="E214" s="3"/>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E215" s="4"/>
+      <c r="E215" s="3"/>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E216" s="4"/>
+      <c r="E216" s="3"/>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E217" s="4"/>
+      <c r="E217" s="3"/>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E218" s="4"/>
+      <c r="E218" s="3"/>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E219" s="4"/>
+      <c r="E219" s="3"/>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E220" s="4"/>
+      <c r="E220" s="3"/>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E221" s="4"/>
+      <c r="E221" s="3"/>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E222" s="4"/>
+      <c r="E222" s="3"/>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E223" s="4"/>
+      <c r="E223" s="3"/>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E224" s="4"/>
+      <c r="E224" s="3"/>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E225" s="4"/>
+      <c r="E225" s="3"/>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E226" s="4"/>
+      <c r="E226" s="3"/>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E227" s="4"/>
+      <c r="E227" s="3"/>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E228" s="4"/>
+      <c r="E228" s="3"/>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E229" s="4"/>
+      <c r="E229" s="3"/>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E230" s="4"/>
+      <c r="E230" s="3"/>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E231" s="4"/>
+      <c r="E231" s="3"/>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E232" s="4"/>
+      <c r="E232" s="3"/>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E233" s="4"/>
+      <c r="E233" s="3"/>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E234" s="4"/>
+      <c r="E234" s="3"/>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E235" s="4"/>
+      <c r="E235" s="3"/>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E236" s="4"/>
+      <c r="E236" s="3"/>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E237" s="4"/>
+      <c r="E237" s="3"/>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E238" s="4"/>
+      <c r="E238" s="3"/>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E239" s="4"/>
+      <c r="E239" s="3"/>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E240" s="4"/>
+      <c r="E240" s="3"/>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E241" s="4"/>
+      <c r="E241" s="3"/>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E242" s="4"/>
+      <c r="E242" s="3"/>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E243" s="4"/>
+      <c r="E243" s="3"/>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E244" s="4"/>
+      <c r="E244" s="3"/>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E245" s="4"/>
+      <c r="E245" s="3"/>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E246" s="4"/>
+      <c r="E246" s="3"/>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E247" s="4"/>
+      <c r="E247" s="3"/>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E248" s="4"/>
+      <c r="E248" s="3"/>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E249" s="4"/>
+      <c r="E249" s="3"/>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E250" s="4"/>
+      <c r="E250" s="3"/>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E251" s="4"/>
+      <c r="E251" s="3"/>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E252" s="4"/>
+      <c r="E252" s="3"/>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E253" s="4"/>
+      <c r="E253" s="3"/>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E254" s="4"/>
+      <c r="E254" s="3"/>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E255" s="4"/>
+      <c r="E255" s="3"/>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E256" s="4"/>
+      <c r="E256" s="3"/>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E257" s="4"/>
+      <c r="E257" s="3"/>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E258" s="4"/>
+      <c r="E258" s="3"/>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E259" s="4"/>
+      <c r="E259" s="3"/>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E260" s="4"/>
+      <c r="E260" s="3"/>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E261" s="4"/>
+      <c r="E261" s="3"/>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E262" s="4"/>
+      <c r="E262" s="3"/>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E263" s="4"/>
+      <c r="E263" s="3"/>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E264" s="4"/>
+      <c r="E264" s="3"/>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E265" s="4"/>
+      <c r="E265" s="3"/>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E266" s="4"/>
+      <c r="E266" s="3"/>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E267" s="4"/>
+      <c r="E267" s="3"/>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E268" s="4"/>
+      <c r="E268" s="3"/>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E269" s="4"/>
+      <c r="E269" s="3"/>
     </row>
     <row r="270" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E270" s="4"/>
+      <c r="E270" s="3"/>
     </row>
     <row r="271" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E271" s="4"/>
+      <c r="E271" s="3"/>
     </row>
     <row r="272" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E272" s="4"/>
+      <c r="E272" s="3"/>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E273" s="4"/>
+      <c r="E273" s="3"/>
     </row>
     <row r="274" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E274" s="4"/>
+      <c r="E274" s="3"/>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E275" s="4"/>
+      <c r="E275" s="3"/>
     </row>
     <row r="276" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E276" s="4"/>
+      <c r="E276" s="3"/>
     </row>
     <row r="277" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E277" s="4"/>
+      <c r="E277" s="3"/>
     </row>
     <row r="278" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E278" s="4"/>
+      <c r="E278" s="3"/>
     </row>
     <row r="279" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E279" s="4"/>
+      <c r="E279" s="3"/>
     </row>
     <row r="280" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E280" s="4"/>
+      <c r="E280" s="3"/>
     </row>
     <row r="281" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E281" s="4"/>
+      <c r="E281" s="3"/>
     </row>
     <row r="282" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E282" s="4"/>
+      <c r="E282" s="3"/>
     </row>
     <row r="283" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E283" s="4"/>
+      <c r="E283" s="3"/>
     </row>
     <row r="284" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E284" s="4"/>
+      <c r="E284" s="3"/>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E285" s="4"/>
+      <c r="E285" s="3"/>
     </row>
     <row r="286" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E286" s="4"/>
+      <c r="E286" s="3"/>
     </row>
     <row r="287" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E287" s="4"/>
+      <c r="E287" s="3"/>
     </row>
     <row r="288" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E288" s="4"/>
+      <c r="E288" s="3"/>
     </row>
     <row r="289" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E289" s="4"/>
+      <c r="E289" s="3"/>
     </row>
     <row r="290" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E290" s="4"/>
+      <c r="E290" s="3"/>
     </row>
     <row r="291" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E291" s="4"/>
+      <c r="E291" s="3"/>
     </row>
     <row r="292" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E292" s="4"/>
+      <c r="E292" s="3"/>
     </row>
     <row r="293" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E293" s="4"/>
+      <c r="E293" s="3"/>
     </row>
     <row r="294" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E294" s="4"/>
+      <c r="E294" s="3"/>
     </row>
     <row r="295" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E295" s="4"/>
+      <c r="E295" s="3"/>
     </row>
     <row r="296" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E296" s="4"/>
+      <c r="E296" s="3"/>
     </row>
     <row r="297" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E297" s="4"/>
+      <c r="E297" s="3"/>
     </row>
     <row r="298" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E298" s="4"/>
+      <c r="E298" s="3"/>
     </row>
     <row r="299" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E299" s="4"/>
+      <c r="E299" s="3"/>
     </row>
     <row r="300" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E300" s="4"/>
+      <c r="E300" s="3"/>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E301" s="4"/>
+      <c r="E301" s="3"/>
     </row>
     <row r="302" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E302" s="4"/>
+      <c r="E302" s="3"/>
     </row>
     <row r="303" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E303" s="4"/>
+      <c r="E303" s="3"/>
     </row>
     <row r="304" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E304" s="4"/>
+      <c r="E304" s="3"/>
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E305" s="4"/>
+      <c r="E305" s="3"/>
     </row>
     <row r="306" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E306" s="4"/>
+      <c r="E306" s="3"/>
     </row>
     <row r="307" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E307" s="4"/>
+      <c r="E307" s="3"/>
     </row>
     <row r="308" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E308" s="4"/>
+      <c r="E308" s="3"/>
     </row>
     <row r="309" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E309" s="4"/>
+      <c r="E309" s="3"/>
     </row>
     <row r="310" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E310" s="4"/>
+      <c r="E310" s="3"/>
     </row>
     <row r="311" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E311" s="4"/>
+      <c r="E311" s="3"/>
     </row>
     <row r="312" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E312" s="4"/>
+      <c r="E312" s="3"/>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E313" s="4"/>
+      <c r="E313" s="3"/>
     </row>
     <row r="314" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E314" s="4"/>
+      <c r="E314" s="3"/>
     </row>
     <row r="315" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E315" s="4"/>
+      <c r="E315" s="3"/>
     </row>
     <row r="316" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E316" s="4"/>
+      <c r="E316" s="3"/>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E317" s="4"/>
+      <c r="E317" s="3"/>
     </row>
     <row r="318" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E318" s="4"/>
+      <c r="E318" s="3"/>
     </row>
     <row r="319" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E319" s="4"/>
+      <c r="E319" s="3"/>
     </row>
     <row r="320" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E320" s="4"/>
+      <c r="E320" s="3"/>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E321" s="4"/>
+      <c r="E321" s="3"/>
     </row>
     <row r="322" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E322" s="4"/>
+      <c r="E322" s="3"/>
     </row>
     <row r="323" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E323" s="4"/>
+      <c r="E323" s="3"/>
     </row>
     <row r="324" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E324" s="4"/>
+      <c r="E324" s="3"/>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E325" s="4"/>
+      <c r="E325" s="3"/>
     </row>
     <row r="326" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E326" s="4"/>
+      <c r="E326" s="3"/>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E327" s="4"/>
+      <c r="E327" s="3"/>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E328" s="4"/>
+      <c r="E328" s="3"/>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E329" s="4"/>
+      <c r="E329" s="3"/>
     </row>
     <row r="330" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E330" s="4"/>
+      <c r="E330" s="3"/>
     </row>
     <row r="331" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E331" s="4"/>
+      <c r="E331" s="3"/>
     </row>
     <row r="332" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E332" s="4"/>
+      <c r="E332" s="3"/>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E333" s="4"/>
+      <c r="E333" s="3"/>
     </row>
     <row r="334" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E334" s="4"/>
+      <c r="E334" s="3"/>
     </row>
     <row r="335" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E335" s="4"/>
+      <c r="E335" s="3"/>
     </row>
     <row r="336" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E336" s="4"/>
+      <c r="E336" s="3"/>
     </row>
     <row r="337" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E337" s="4"/>
+      <c r="E337" s="3"/>
     </row>
     <row r="338" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E338" s="4"/>
+      <c r="E338" s="3"/>
     </row>
     <row r="339" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E339" s="4"/>
+      <c r="E339" s="3"/>
     </row>
     <row r="340" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E340" s="4"/>
+      <c r="E340" s="3"/>
     </row>
     <row r="341" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E341" s="4"/>
+      <c r="E341" s="3"/>
     </row>
     <row r="342" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E342" s="4"/>
+      <c r="E342" s="3"/>
     </row>
     <row r="343" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E343" s="4"/>
+      <c r="E343" s="3"/>
     </row>
     <row r="344" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E344" s="4"/>
+      <c r="E344" s="3"/>
     </row>
     <row r="345" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E345" s="4"/>
+      <c r="E345" s="3"/>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E346" s="4"/>
+      <c r="E346" s="3"/>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E347" s="4"/>
+      <c r="E347" s="3"/>
     </row>
     <row r="348" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E348" s="4"/>
+      <c r="E348" s="3"/>
     </row>
     <row r="349" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E349" s="4"/>
+      <c r="E349" s="3"/>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E350" s="4"/>
+      <c r="E350" s="3"/>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E351" s="4"/>
+      <c r="E351" s="3"/>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E352" s="4"/>
+      <c r="E352" s="3"/>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E353" s="4"/>
+      <c r="E353" s="3"/>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E354" s="4"/>
+      <c r="E354" s="3"/>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E355" s="4"/>
+      <c r="E355" s="3"/>
     </row>
     <row r="356" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E356" s="4"/>
+      <c r="E356" s="3"/>
     </row>
     <row r="357" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E357" s="4"/>
+      <c r="E357" s="3"/>
     </row>
     <row r="358" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E358" s="4"/>
+      <c r="E358" s="3"/>
     </row>
     <row r="359" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E359" s="4"/>
+      <c r="E359" s="3"/>
     </row>
     <row r="360" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E360" s="4"/>
+      <c r="E360" s="3"/>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E361" s="4"/>
+      <c r="E361" s="3"/>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E362" s="4"/>
+      <c r="E362" s="3"/>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E363" s="4"/>
+      <c r="E363" s="3"/>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E364" s="4"/>
+      <c r="E364" s="3"/>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E365" s="4"/>
+      <c r="E365" s="3"/>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E366" s="4"/>
+      <c r="E366" s="3"/>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E367" s="4"/>
+      <c r="E367" s="3"/>
     </row>
     <row r="368" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E368" s="4"/>
+      <c r="E368" s="3"/>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E369" s="4"/>
+      <c r="E369" s="3"/>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E370" s="4"/>
+      <c r="E370" s="3"/>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E371" s="4"/>
+      <c r="E371" s="3"/>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E372" s="4"/>
+      <c r="E372" s="3"/>
     </row>
     <row r="373" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E373" s="4"/>
+      <c r="E373" s="3"/>
     </row>
     <row r="374" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E374" s="4"/>
+      <c r="E374" s="3"/>
     </row>
     <row r="375" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E375" s="4"/>
+      <c r="E375" s="3"/>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E376" s="4"/>
+      <c r="E376" s="3"/>
     </row>
     <row r="377" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E377" s="4"/>
+      <c r="E377" s="3"/>
     </row>
     <row r="378" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E378" s="4"/>
+      <c r="E378" s="3"/>
     </row>
     <row r="379" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E379" s="4"/>
+      <c r="E379" s="3"/>
     </row>
     <row r="380" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E380" s="4"/>
+      <c r="E380" s="3"/>
     </row>
     <row r="381" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E381" s="4"/>
+      <c r="E381" s="3"/>
     </row>
     <row r="382" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E382" s="4"/>
+      <c r="E382" s="3"/>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E383" s="4"/>
+      <c r="E383" s="3"/>
     </row>
     <row r="384" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E384" s="4"/>
+      <c r="E384" s="3"/>
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E385" s="4"/>
+      <c r="E385" s="3"/>
     </row>
     <row r="386" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E386" s="4"/>
+      <c r="E386" s="3"/>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E387" s="4"/>
+      <c r="E387" s="3"/>
     </row>
     <row r="388" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E388" s="4"/>
+      <c r="E388" s="3"/>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E389" s="4"/>
+      <c r="E389" s="3"/>
     </row>
     <row r="390" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E390" s="4"/>
+      <c r="E390" s="3"/>
     </row>
     <row r="391" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E391" s="4"/>
+      <c r="E391" s="3"/>
     </row>
     <row r="392" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E392" s="4"/>
+      <c r="E392" s="3"/>
     </row>
     <row r="393" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E393" s="4"/>
+      <c r="E393" s="3"/>
     </row>
     <row r="394" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E394" s="4"/>
+      <c r="E394" s="3"/>
     </row>
     <row r="395" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E395" s="4"/>
+      <c r="E395" s="3"/>
     </row>
     <row r="396" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E396" s="4"/>
+      <c r="E396" s="3"/>
     </row>
     <row r="397" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E397" s="4"/>
+      <c r="E397" s="3"/>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E398" s="4"/>
+      <c r="E398" s="3"/>
     </row>
     <row r="399" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E399" s="4"/>
+      <c r="E399" s="3"/>
     </row>
     <row r="400" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E400" s="4"/>
+      <c r="E400" s="3"/>
     </row>
     <row r="401" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E401" s="4"/>
+      <c r="E401" s="3"/>
     </row>
     <row r="402" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E402" s="4"/>
+      <c r="E402" s="3"/>
     </row>
     <row r="403" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E403" s="4"/>
+      <c r="E403" s="3"/>
     </row>
     <row r="404" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E404" s="4"/>
+      <c r="E404" s="3"/>
     </row>
     <row r="405" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E405" s="4"/>
+      <c r="E405" s="3"/>
     </row>
     <row r="406" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E406" s="4"/>
+      <c r="E406" s="3"/>
     </row>
     <row r="407" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E407" s="4"/>
+      <c r="E407" s="3"/>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E408" s="4"/>
+      <c r="E408" s="3"/>
     </row>
     <row r="409" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E409" s="4"/>
+      <c r="E409" s="3"/>
     </row>
     <row r="410" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E410" s="4"/>
+      <c r="E410" s="3"/>
     </row>
     <row r="411" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E411" s="4"/>
+      <c r="E411" s="3"/>
     </row>
     <row r="412" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E412" s="4"/>
+      <c r="E412" s="3"/>
     </row>
     <row r="413" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E413" s="4"/>
+      <c r="E413" s="3"/>
     </row>
     <row r="414" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E414" s="4"/>
+      <c r="E414" s="3"/>
     </row>
     <row r="415" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E415" s="4"/>
+      <c r="E415" s="3"/>
     </row>
     <row r="416" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E416" s="4"/>
+      <c r="E416" s="3"/>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E417" s="4"/>
+      <c r="E417" s="3"/>
     </row>
     <row r="418" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E418" s="4"/>
+      <c r="E418" s="3"/>
     </row>
     <row r="419" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E419" s="4"/>
+      <c r="E419" s="3"/>
     </row>
     <row r="420" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E420" s="4"/>
+      <c r="E420" s="3"/>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E421" s="4"/>
+      <c r="E421" s="3"/>
     </row>
     <row r="422" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E422" s="4"/>
+      <c r="E422" s="3"/>
     </row>
     <row r="423" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E423" s="4"/>
+      <c r="E423" s="3"/>
     </row>
     <row r="424" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E424" s="4"/>
+      <c r="E424" s="3"/>
     </row>
     <row r="425" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E425" s="4"/>
+      <c r="E425" s="3"/>
     </row>
     <row r="426" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E426" s="4"/>
+      <c r="E426" s="3"/>
     </row>
     <row r="427" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E427" s="4"/>
+      <c r="E427" s="3"/>
     </row>
     <row r="428" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E428" s="4"/>
+      <c r="E428" s="3"/>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E429" s="4"/>
+      <c r="E429" s="3"/>
     </row>
     <row r="430" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E430" s="4"/>
+      <c r="E430" s="3"/>
     </row>
     <row r="431" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E431" s="4"/>
+      <c r="E431" s="3"/>
     </row>
     <row r="432" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E432" s="4"/>
+      <c r="E432" s="3"/>
     </row>
     <row r="433" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E433" s="4"/>
+      <c r="E433" s="3"/>
     </row>
     <row r="434" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E434" s="4"/>
+      <c r="E434" s="3"/>
     </row>
     <row r="435" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E435" s="4"/>
+      <c r="E435" s="3"/>
     </row>
     <row r="436" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E436" s="4"/>
+      <c r="E436" s="3"/>
     </row>
     <row r="437" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E437" s="4"/>
+      <c r="E437" s="3"/>
     </row>
     <row r="438" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E438" s="4"/>
+      <c r="E438" s="3"/>
     </row>
     <row r="439" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E439" s="4"/>
+      <c r="E439" s="3"/>
     </row>
     <row r="440" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E440" s="4"/>
+      <c r="E440" s="3"/>
     </row>
     <row r="441" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E441" s="4"/>
+      <c r="E441" s="3"/>
     </row>
     <row r="442" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E442" s="4"/>
+      <c r="E442" s="3"/>
     </row>
     <row r="443" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E443" s="4"/>
+      <c r="E443" s="3"/>
     </row>
     <row r="444" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E444" s="4"/>
-    </row>
-    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E445" s="4"/>
-    </row>
-    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E446" s="4"/>
-    </row>
-    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E447" s="4"/>
-    </row>
-    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E448" s="4"/>
-    </row>
-    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E449" s="4"/>
-    </row>
-    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E450" s="4"/>
+      <c r="E444" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:E1048576">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$E4 = "Not enrolled"</formula>
+  <conditionalFormatting sqref="B3:E1048576">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$E3 = "Not enrolled"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$E4 = "Enrolled"</formula>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$E3 = "Enrolled"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G121 I4:I130 K4:K197 M4:M181">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$E4 = "Enrolled"</formula>
+  <conditionalFormatting sqref="F3:M7 L8:L142 F8:K132 M8:M132">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$E3 = "Enrolled"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:M1048576">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$E1 = "Not enrolled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:G58">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$F3= "Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:I223">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$H3 = "Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:K171">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$J3 = "Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:L142 L3:M112">
+    <cfRule type="expression" dxfId="0" priority="14">
+      <formula>$L3 = "Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2233,17 +2997,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FEAAEDAE-1C61-42B4-AFD4-BE16C375C4BA}">
+          <x14:formula1>
+            <xm:f>'Validation support sheet'!$B$3:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H97 J3:J43 L3:L142 F3:F201</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{371237FD-64B2-4527-AF10-667189A56D2E}">
           <x14:formula1>
             <xm:f>'Validation support sheet'!$A$3:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E450</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FEAAEDAE-1C61-42B4-AFD4-BE16C375C4BA}">
-          <x14:formula1>
-            <xm:f>'Validation support sheet'!$B$3:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>F4:F207</xm:sqref>
+          <xm:sqref>E3:E444</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
